--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel20/field_16ha_100ha_18%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel20/field_16ha_100ha_18%_6m_0_LM/Planilha_Unificada.xlsx
@@ -1652,28 +1652,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>149.3065295567704</v>
+        <v>201.1067363296706</v>
       </c>
       <c r="AB2" t="n">
-        <v>204.2877806786832</v>
+        <v>275.1631088491669</v>
       </c>
       <c r="AC2" t="n">
-        <v>184.7908416104688</v>
+        <v>248.9019279345318</v>
       </c>
       <c r="AD2" t="n">
-        <v>149306.5295567704</v>
+        <v>201106.7363296706</v>
       </c>
       <c r="AE2" t="n">
-        <v>204287.7806786832</v>
+        <v>275163.1088491668</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.562033986603925e-06</v>
+        <v>3.693593226505776e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.86197916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>184790.8416104687</v>
+        <v>248901.9279345318</v>
       </c>
     </row>
     <row r="3">
@@ -1758,28 +1758,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>116.6263727181563</v>
+        <v>159.7932116955732</v>
       </c>
       <c r="AB3" t="n">
-        <v>159.5733483453475</v>
+        <v>218.6361218207505</v>
       </c>
       <c r="AC3" t="n">
-        <v>144.3438919419125</v>
+        <v>197.769797211965</v>
       </c>
       <c r="AD3" t="n">
-        <v>116626.3727181563</v>
+        <v>159793.2116955732</v>
       </c>
       <c r="AE3" t="n">
-        <v>159573.3483453475</v>
+        <v>218636.1218207505</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.096367796916481e-06</v>
+        <v>4.463923266147278e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.817708333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>144343.8919419125</v>
+        <v>197769.797211965</v>
       </c>
     </row>
     <row r="4">
@@ -1864,28 +1864,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>116.8028847770975</v>
+        <v>159.9697237545143</v>
       </c>
       <c r="AB4" t="n">
-        <v>159.8148599315531</v>
+        <v>218.8776334069561</v>
       </c>
       <c r="AC4" t="n">
-        <v>144.5623540012944</v>
+        <v>197.9882592713469</v>
       </c>
       <c r="AD4" t="n">
-        <v>116802.8847770975</v>
+        <v>159969.7237545144</v>
       </c>
       <c r="AE4" t="n">
-        <v>159814.8599315531</v>
+        <v>218877.6334069561</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.093870255517589e-06</v>
+        <v>4.460322649589457e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.817708333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>144562.3540012944</v>
+        <v>197988.2592713469</v>
       </c>
     </row>
   </sheetData>
@@ -2161,28 +2161,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>126.699215710701</v>
+        <v>177.1184161861468</v>
       </c>
       <c r="AB2" t="n">
-        <v>173.35545651021</v>
+        <v>242.3412309388195</v>
       </c>
       <c r="AC2" t="n">
-        <v>156.8106550468352</v>
+        <v>219.2125239861427</v>
       </c>
       <c r="AD2" t="n">
-        <v>126699.215710701</v>
+        <v>177118.4161861468</v>
       </c>
       <c r="AE2" t="n">
-        <v>173355.4565102101</v>
+        <v>242341.2309388195</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.960839400196273e-06</v>
+        <v>4.33455749820951e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.625</v>
       </c>
       <c r="AH2" t="n">
-        <v>156810.6550468352</v>
+        <v>219212.5239861427</v>
       </c>
     </row>
     <row r="3">
@@ -2267,28 +2267,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>111.9442359560342</v>
+        <v>154.0313537310488</v>
       </c>
       <c r="AB3" t="n">
-        <v>153.1670422661196</v>
+        <v>210.7524935584589</v>
       </c>
       <c r="AC3" t="n">
-        <v>138.548994723577</v>
+        <v>190.6385713662822</v>
       </c>
       <c r="AD3" t="n">
-        <v>111944.2359560342</v>
+        <v>154031.3537310488</v>
       </c>
       <c r="AE3" t="n">
-        <v>153167.0422661196</v>
+        <v>210752.4935584589</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.234612007596578e-06</v>
+        <v>4.735350296404743e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.713541666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>138548.994723577</v>
+        <v>190638.5713662822</v>
       </c>
     </row>
   </sheetData>
@@ -2564,28 +2564,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>108.501822520321</v>
+        <v>147.2530148454992</v>
       </c>
       <c r="AB2" t="n">
-        <v>148.4569803348168</v>
+        <v>201.4780712560481</v>
       </c>
       <c r="AC2" t="n">
-        <v>134.2884544923828</v>
+        <v>182.2492869116772</v>
       </c>
       <c r="AD2" t="n">
-        <v>108501.822520321</v>
+        <v>147253.0148454992</v>
       </c>
       <c r="AE2" t="n">
-        <v>148456.9803348168</v>
+        <v>201478.0712560481</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.475013324479365e-06</v>
+        <v>5.376274543994146e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.09114583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>134288.4544923828</v>
+        <v>182249.2869116772</v>
       </c>
     </row>
   </sheetData>
@@ -2861,28 +2861,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>103.9026127156563</v>
+        <v>144.0099402743787</v>
       </c>
       <c r="AB2" t="n">
-        <v>142.1641385772613</v>
+        <v>197.0407535534909</v>
       </c>
       <c r="AC2" t="n">
-        <v>128.5961927201075</v>
+        <v>178.2354605828361</v>
       </c>
       <c r="AD2" t="n">
-        <v>103902.6127156563</v>
+        <v>144009.9402743787</v>
       </c>
       <c r="AE2" t="n">
-        <v>142164.1385772613</v>
+        <v>197040.7535534909</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.46612789546363e-06</v>
+        <v>5.238338182253837e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.6875</v>
       </c>
       <c r="AH2" t="n">
-        <v>128596.1927201075</v>
+        <v>178235.4605828361</v>
       </c>
     </row>
   </sheetData>
@@ -3158,28 +3158,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>105.5805646104627</v>
+        <v>150.8480935787373</v>
       </c>
       <c r="AB2" t="n">
-        <v>144.4599863857473</v>
+        <v>206.3970165825422</v>
       </c>
       <c r="AC2" t="n">
-        <v>130.672928035995</v>
+        <v>186.6987749999953</v>
       </c>
       <c r="AD2" t="n">
-        <v>105580.5646104627</v>
+        <v>150848.0935787373</v>
       </c>
       <c r="AE2" t="n">
-        <v>144459.9863857473</v>
+        <v>206397.0165825422</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.440492876569789e-06</v>
+        <v>5.437657672277581e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.5859375</v>
       </c>
       <c r="AH2" t="n">
-        <v>130672.928035995</v>
+        <v>186698.7749999953</v>
       </c>
     </row>
   </sheetData>
@@ -3455,28 +3455,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>128.7550706516809</v>
+        <v>179.5148257117506</v>
       </c>
       <c r="AB2" t="n">
-        <v>176.1683679383763</v>
+        <v>245.6201041738758</v>
       </c>
       <c r="AC2" t="n">
-        <v>159.3551061562442</v>
+        <v>222.1784661615737</v>
       </c>
       <c r="AD2" t="n">
-        <v>128755.0706516809</v>
+        <v>179514.8257117506</v>
       </c>
       <c r="AE2" t="n">
-        <v>176168.3679383763</v>
+        <v>245620.1041738758</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.901530686624948e-06</v>
+        <v>4.230101804877724e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.7421875</v>
       </c>
       <c r="AH2" t="n">
-        <v>159355.1061562442</v>
+        <v>222178.4661615737</v>
       </c>
     </row>
     <row r="3">
@@ -3561,28 +3561,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>113.401405252133</v>
+        <v>155.7723185143341</v>
       </c>
       <c r="AB3" t="n">
-        <v>155.1608055828134</v>
+        <v>213.1345583808942</v>
       </c>
       <c r="AC3" t="n">
-        <v>140.3524760675905</v>
+        <v>192.7932952653141</v>
       </c>
       <c r="AD3" t="n">
-        <v>113401.405252133</v>
+        <v>155772.3185143341</v>
       </c>
       <c r="AE3" t="n">
-        <v>155160.8055828134</v>
+        <v>213134.5583808942</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.188709311237832e-06</v>
+        <v>4.648775584168443e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.765625</v>
       </c>
       <c r="AH3" t="n">
-        <v>140352.4760675905</v>
+        <v>192793.2952653141</v>
       </c>
     </row>
   </sheetData>
@@ -3858,28 +3858,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>111.916759400218</v>
+        <v>149.0936588139876</v>
       </c>
       <c r="AB2" t="n">
-        <v>153.1294476302719</v>
+        <v>203.9965215372135</v>
       </c>
       <c r="AC2" t="n">
-        <v>138.5149880670102</v>
+        <v>184.527379832676</v>
       </c>
       <c r="AD2" t="n">
-        <v>111916.759400218</v>
+        <v>149093.6588139876</v>
       </c>
       <c r="AE2" t="n">
-        <v>153129.4476302719</v>
+        <v>203996.5215372135</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.352719083790618e-06</v>
+        <v>5.371843518160243e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.11979166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>138514.9880670102</v>
+        <v>184527.3798326761</v>
       </c>
     </row>
   </sheetData>
@@ -4155,28 +4155,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>109.074861863279</v>
+        <v>150.240925973143</v>
       </c>
       <c r="AB2" t="n">
-        <v>149.2410380445631</v>
+        <v>205.566263078224</v>
       </c>
       <c r="AC2" t="n">
-        <v>134.997682834743</v>
+        <v>185.9473074441592</v>
       </c>
       <c r="AD2" t="n">
-        <v>109074.861863279</v>
+        <v>150240.925973143</v>
       </c>
       <c r="AE2" t="n">
-        <v>149241.0380445631</v>
+        <v>205566.263078224</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.293568812035634e-06</v>
+        <v>4.89043324482891e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.830729166666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>134997.6828347431</v>
+        <v>185947.3074441591</v>
       </c>
     </row>
     <row r="3">
@@ -4261,28 +4261,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>108.3927349798814</v>
+        <v>149.5587990897453</v>
       </c>
       <c r="AB3" t="n">
-        <v>148.3077219493848</v>
+        <v>204.6329469830457</v>
       </c>
       <c r="AC3" t="n">
-        <v>134.1534411177709</v>
+        <v>185.103065727187</v>
       </c>
       <c r="AD3" t="n">
-        <v>108392.7349798814</v>
+        <v>149558.7990897453</v>
       </c>
       <c r="AE3" t="n">
-        <v>148307.7219493848</v>
+        <v>204632.9469830457</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.334891734957003e-06</v>
+        <v>4.951791305814209e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.713541666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>134153.4411177709</v>
+        <v>185103.065727187</v>
       </c>
     </row>
   </sheetData>
@@ -4558,28 +4558,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>125.2773776021086</v>
+        <v>175.3430734774165</v>
       </c>
       <c r="AB2" t="n">
-        <v>171.4100348829647</v>
+        <v>239.9121287221434</v>
       </c>
       <c r="AC2" t="n">
-        <v>155.0509017292772</v>
+        <v>217.015251875759</v>
       </c>
       <c r="AD2" t="n">
-        <v>125277.3776021086</v>
+        <v>175343.0734774165</v>
       </c>
       <c r="AE2" t="n">
-        <v>171410.0348829647</v>
+        <v>239912.1287221434</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.001833088924253e-06</v>
+        <v>4.414022889248427e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.57291666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>155050.9017292772</v>
+        <v>217015.251875759</v>
       </c>
     </row>
     <row r="3">
@@ -4664,28 +4664,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>110.9986435817656</v>
+        <v>152.7911741899986</v>
       </c>
       <c r="AB3" t="n">
-        <v>151.8732410630547</v>
+        <v>209.055625197535</v>
       </c>
       <c r="AC3" t="n">
-        <v>137.3786720914708</v>
+        <v>189.1036497401547</v>
       </c>
       <c r="AD3" t="n">
-        <v>110998.6435817656</v>
+        <v>152791.1741899986</v>
       </c>
       <c r="AE3" t="n">
-        <v>151873.2410630547</v>
+        <v>209055.625197535</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.249978904083646e-06</v>
+        <v>4.77890703688013e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.765625</v>
       </c>
       <c r="AH3" t="n">
-        <v>137378.6720914708</v>
+        <v>189103.6497401547</v>
       </c>
     </row>
   </sheetData>
@@ -4961,28 +4961,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>144.8245615577773</v>
+        <v>196.1459406071595</v>
       </c>
       <c r="AB2" t="n">
-        <v>198.155354331991</v>
+        <v>268.3755292867692</v>
       </c>
       <c r="AC2" t="n">
-        <v>179.2436854273885</v>
+        <v>242.7621454391395</v>
       </c>
       <c r="AD2" t="n">
-        <v>144824.5615577773</v>
+        <v>196145.9406071595</v>
       </c>
       <c r="AE2" t="n">
-        <v>198155.354331991</v>
+        <v>268375.5292867692</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.679733092586075e-06</v>
+        <v>3.876964163555094e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.43229166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>179243.6854273885</v>
+        <v>242762.1454391395</v>
       </c>
     </row>
     <row r="3">
@@ -5067,28 +5067,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>116.0269251213849</v>
+        <v>158.9369011630302</v>
       </c>
       <c r="AB3" t="n">
-        <v>158.7531576976838</v>
+        <v>217.4644799723713</v>
       </c>
       <c r="AC3" t="n">
-        <v>143.6019791385167</v>
+        <v>196.7099752171851</v>
       </c>
       <c r="AD3" t="n">
-        <v>116026.9251213849</v>
+        <v>158936.9011630302</v>
       </c>
       <c r="AE3" t="n">
-        <v>158753.1576976838</v>
+        <v>217464.4799723713</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.107050467602961e-06</v>
+        <v>4.495195193349972e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.856770833333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>143601.9791385167</v>
+        <v>196709.9752171851</v>
       </c>
     </row>
   </sheetData>
@@ -5364,28 +5364,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>105.5507992628928</v>
+        <v>146.0298454288869</v>
       </c>
       <c r="AB2" t="n">
-        <v>144.4192601240478</v>
+        <v>199.8044768978139</v>
       </c>
       <c r="AC2" t="n">
-        <v>130.6360886315523</v>
+        <v>180.7354180500878</v>
       </c>
       <c r="AD2" t="n">
-        <v>105550.7992628928</v>
+        <v>146029.8454288869</v>
       </c>
       <c r="AE2" t="n">
-        <v>144419.2601240478</v>
+        <v>199804.4768978138</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.413813624728888e-06</v>
+        <v>5.126471395437781e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.713541666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>130636.0886315523</v>
+        <v>180735.4180500878</v>
       </c>
     </row>
   </sheetData>
@@ -5661,28 +5661,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>101.8581096344553</v>
+        <v>148.836579877794</v>
       </c>
       <c r="AB2" t="n">
-        <v>139.3667592644533</v>
+        <v>203.6447747951914</v>
       </c>
       <c r="AC2" t="n">
-        <v>126.0657913627665</v>
+        <v>184.2092033060328</v>
       </c>
       <c r="AD2" t="n">
-        <v>101858.1096344553</v>
+        <v>148836.579877794</v>
       </c>
       <c r="AE2" t="n">
-        <v>139366.7592644533</v>
+        <v>203644.7747951914</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.473125027825449e-06</v>
+        <v>5.326894219887039e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.934895833333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>126065.7913627665</v>
+        <v>184209.2033060328</v>
       </c>
     </row>
   </sheetData>
@@ -9163,28 +9163,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>106.893835140576</v>
+        <v>145.1498842450119</v>
       </c>
       <c r="AB2" t="n">
-        <v>146.2568610624542</v>
+        <v>198.6004751848891</v>
       </c>
       <c r="AC2" t="n">
-        <v>132.298311515487</v>
+        <v>179.6463245708172</v>
       </c>
       <c r="AD2" t="n">
-        <v>106893.835140576</v>
+        <v>145149.8842450119</v>
       </c>
       <c r="AE2" t="n">
-        <v>146256.8610624542</v>
+        <v>198600.4751848892</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.482170989465432e-06</v>
+        <v>5.440823483944061e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.26041666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>132298.311515487</v>
+        <v>179646.3245708172</v>
       </c>
     </row>
   </sheetData>
@@ -9460,28 +9460,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>118.2258114438455</v>
+        <v>161.8910970528125</v>
       </c>
       <c r="AB2" t="n">
-        <v>161.7617709720909</v>
+        <v>221.5065411186939</v>
       </c>
       <c r="AC2" t="n">
-        <v>146.3234545846306</v>
+        <v>200.3662677207724</v>
       </c>
       <c r="AD2" t="n">
-        <v>118225.8114438455</v>
+        <v>161891.0970528125</v>
       </c>
       <c r="AE2" t="n">
-        <v>161761.7709720909</v>
+        <v>221506.5411186939</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.17141645231766e-06</v>
+        <v>5.16838170044889e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.08333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>146323.4545846306</v>
+        <v>200366.2677207724</v>
       </c>
     </row>
   </sheetData>
@@ -9757,28 +9757,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>121.8568635792415</v>
+        <v>163.2575904293264</v>
       </c>
       <c r="AB2" t="n">
-        <v>166.7299366944518</v>
+        <v>223.3762376418722</v>
       </c>
       <c r="AC2" t="n">
-        <v>150.8174655433153</v>
+        <v>202.0575230319147</v>
       </c>
       <c r="AD2" t="n">
-        <v>121856.8635792415</v>
+        <v>163257.5904293264</v>
       </c>
       <c r="AE2" t="n">
-        <v>166729.9366944518</v>
+        <v>223376.2376418722</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.119321122965229e-06</v>
+        <v>4.608425150977742e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.2734375</v>
       </c>
       <c r="AH2" t="n">
-        <v>150817.4655433153</v>
+        <v>202057.5230319147</v>
       </c>
     </row>
     <row r="3">
@@ -9863,28 +9863,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>109.6600133925745</v>
+        <v>151.1459915886799</v>
       </c>
       <c r="AB3" t="n">
-        <v>150.0416681820084</v>
+        <v>206.804613782078</v>
       </c>
       <c r="AC3" t="n">
-        <v>135.7219019555622</v>
+        <v>187.0674716948738</v>
       </c>
       <c r="AD3" t="n">
-        <v>109660.0133925745</v>
+        <v>151145.9915886799</v>
       </c>
       <c r="AE3" t="n">
-        <v>150041.6681820084</v>
+        <v>206804.613782078</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.298917877517461e-06</v>
+        <v>4.873757948751928e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.713541666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>135721.9019555622</v>
+        <v>187067.4716948738</v>
       </c>
     </row>
   </sheetData>
@@ -10160,28 +10160,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>140.4968816876766</v>
+        <v>183.1418853997604</v>
       </c>
       <c r="AB2" t="n">
-        <v>192.2340318099611</v>
+        <v>250.5828072535885</v>
       </c>
       <c r="AC2" t="n">
-        <v>173.8874856162308</v>
+        <v>226.6675358245577</v>
       </c>
       <c r="AD2" t="n">
-        <v>140496.8816876767</v>
+        <v>183141.8853997604</v>
       </c>
       <c r="AE2" t="n">
-        <v>192234.0318099611</v>
+        <v>250582.8072535885</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.804414555382272e-06</v>
+        <v>4.072483924304594e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.015625</v>
       </c>
       <c r="AH2" t="n">
-        <v>173887.4856162308</v>
+        <v>226667.5358245576</v>
       </c>
     </row>
     <row r="3">
@@ -10266,28 +10266,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>114.5874218945025</v>
+        <v>157.2323360980351</v>
       </c>
       <c r="AB3" t="n">
-        <v>156.783565876264</v>
+        <v>215.1322188503429</v>
       </c>
       <c r="AC3" t="n">
-        <v>141.820362396193</v>
+        <v>194.6003018232933</v>
       </c>
       <c r="AD3" t="n">
-        <v>114587.4218945025</v>
+        <v>157232.3360980352</v>
       </c>
       <c r="AE3" t="n">
-        <v>156783.565876264</v>
+        <v>215132.2188503429</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.151849660098191e-06</v>
+        <v>4.577018418314803e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.8046875</v>
       </c>
       <c r="AH3" t="n">
-        <v>141820.362396193</v>
+        <v>194600.3018232933</v>
       </c>
     </row>
   </sheetData>
@@ -10563,28 +10563,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>132.4588145403566</v>
+        <v>182.1832109861631</v>
       </c>
       <c r="AB2" t="n">
-        <v>181.2359937245081</v>
+        <v>249.2711066271751</v>
       </c>
       <c r="AC2" t="n">
-        <v>163.9390848498067</v>
+        <v>225.4810220649454</v>
       </c>
       <c r="AD2" t="n">
-        <v>132458.8145403566</v>
+        <v>182183.2109861631</v>
       </c>
       <c r="AE2" t="n">
-        <v>181235.9937245082</v>
+        <v>249271.1066271751</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.764048342607343e-06</v>
+        <v>4.607503907774703e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.36197916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>163939.0848498067</v>
+        <v>225481.0220649454</v>
       </c>
     </row>
   </sheetData>
@@ -10860,28 +10860,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>103.1833984636323</v>
+        <v>142.8961033427112</v>
       </c>
       <c r="AB2" t="n">
-        <v>141.1800779081492</v>
+        <v>195.5167527245668</v>
       </c>
       <c r="AC2" t="n">
-        <v>127.7060494201173</v>
+        <v>176.8569082540754</v>
       </c>
       <c r="AD2" t="n">
-        <v>103183.3984636323</v>
+        <v>142896.1033427112</v>
       </c>
       <c r="AE2" t="n">
-        <v>141180.0779081492</v>
+        <v>195516.7527245668</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.457852497222097e-06</v>
+        <v>5.262528612459718e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.84375</v>
       </c>
       <c r="AH2" t="n">
-        <v>127706.0494201173</v>
+        <v>176856.9082540754</v>
       </c>
     </row>
   </sheetData>
@@ -11157,28 +11157,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>106.9377311242323</v>
+        <v>147.7688368893877</v>
       </c>
       <c r="AB2" t="n">
-        <v>146.3169214838469</v>
+        <v>202.1838417329585</v>
       </c>
       <c r="AC2" t="n">
-        <v>132.3526398545573</v>
+        <v>182.8876996448266</v>
       </c>
       <c r="AD2" t="n">
-        <v>106937.7311242323</v>
+        <v>147768.8368893877</v>
       </c>
       <c r="AE2" t="n">
-        <v>146316.9214838469</v>
+        <v>202183.8417329585</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.373067347959933e-06</v>
+        <v>5.035688315423626e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.713541666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>132352.6398545573</v>
+        <v>182887.6996448266</v>
       </c>
     </row>
     <row r="3">
@@ -11263,28 +11263,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>107.0694450077262</v>
+        <v>147.9005507728815</v>
       </c>
       <c r="AB3" t="n">
-        <v>146.4971382300496</v>
+        <v>202.3640584791612</v>
       </c>
       <c r="AC3" t="n">
-        <v>132.5156569674382</v>
+        <v>183.0507167577075</v>
       </c>
       <c r="AD3" t="n">
-        <v>107069.4450077262</v>
+        <v>147900.5507728815</v>
       </c>
       <c r="AE3" t="n">
-        <v>146497.1382300495</v>
+        <v>202364.0584791612</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.374576685416511e-06</v>
+        <v>5.037941621453438e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.700520833333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>132515.6569674382</v>
+        <v>183050.7167577075</v>
       </c>
     </row>
   </sheetData>
